--- a/BRD/aula28-3/tabela-dados.xlsx
+++ b/BRD/aula28-3/tabela-dados.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884FBD0-4EC9-480D-8ED1-1EBB860908A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71CB2D-DD66-44BD-A1E9-CBC00C5BBAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{AF0B58FA-36D0-418B-B384-E06AAE4F7AB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{AF0B58FA-36D0-418B-B384-E06AAE4F7AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJETOS" sheetId="1" r:id="rId1"/>
-    <sheet name="PRODUTOS" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="PRODUTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="143">
   <si>
     <t>ENTIDADES</t>
   </si>
@@ -320,13 +321,157 @@
   </si>
   <si>
     <t># cd_dependente</t>
+  </si>
+  <si>
+    <t>T_SIP_CLIENTE</t>
+  </si>
+  <si>
+    <t>T_SIP_PRODUTO</t>
+  </si>
+  <si>
+    <t>T_SIP_UNIDADECOMERCIAL</t>
+  </si>
+  <si>
+    <t>data nascimento</t>
+  </si>
+  <si>
+    <t>codigo produto</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>T_SIP_CFOP</t>
+  </si>
+  <si>
+    <t>T_SIP_NOTA</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>ITENS NOTA FISCAL</t>
+  </si>
+  <si>
+    <t>T_SIP_ITENSNOTA</t>
+  </si>
+  <si>
+    <t>codigo nota</t>
+  </si>
+  <si>
+    <t># cd_cliente</t>
+  </si>
+  <si>
+    <t>nm_cliente</t>
+  </si>
+  <si>
+    <t>ds_genero</t>
+  </si>
+  <si>
+    <t>ds_telefone</t>
+  </si>
+  <si>
+    <t>ds_email</t>
+  </si>
+  <si>
+    <t>numero cpf</t>
+  </si>
+  <si>
+    <t>numero digito cpf</t>
+  </si>
+  <si>
+    <t>numero rg</t>
+  </si>
+  <si>
+    <t>numerod gitio rg</t>
+  </si>
+  <si>
+    <t>nr_cpf</t>
+  </si>
+  <si>
+    <t>nr_rg</t>
+  </si>
+  <si>
+    <t>nr_cpf_digito</t>
+  </si>
+  <si>
+    <t>nr_rg_digito</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t># cd_produto</t>
+  </si>
+  <si>
+    <t># cd_unidade</t>
+  </si>
+  <si>
+    <t># cd_nota</t>
+  </si>
+  <si>
+    <t>nm_produto</t>
+  </si>
+  <si>
+    <t>dc_produto</t>
+  </si>
+  <si>
+    <t>pc_produto</t>
+  </si>
+  <si>
+    <t>qt_produto</t>
+  </si>
+  <si>
+    <t>C, M</t>
+  </si>
+  <si>
+    <t>sg_unidade</t>
+  </si>
+  <si>
+    <t>nm_unidade</t>
+  </si>
+  <si>
+    <t># cd_cfop</t>
+  </si>
+  <si>
+    <t>natureza_cfop</t>
+  </si>
+  <si>
+    <t>tp_cfop</t>
+  </si>
+  <si>
+    <t>numero da nota</t>
+  </si>
+  <si>
+    <t># nr_nota</t>
+  </si>
+  <si>
+    <t>data_emissao</t>
+  </si>
+  <si>
+    <t>data_saida</t>
+  </si>
+  <si>
+    <t>tp_nota</t>
+  </si>
+  <si>
+    <t>vt_nota</t>
+  </si>
+  <si>
+    <t>qt_nota</t>
+  </si>
+  <si>
+    <t>pc_nota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +499,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -691,11 +842,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,12 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -842,6 +1058,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,8 +1418,8 @@
   </sheetPr>
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="B3:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,10 +1437,10 @@
       <c r="C2"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -1204,13 +1461,13 @@
       <c r="D5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="38" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1219,16 +1476,16 @@
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1239,126 +1496,126 @@
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="46" t="s">
+      <c r="F7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="52" t="s">
+      <c r="E8" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="63" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="64" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="46" t="s">
+      <c r="E10" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="64" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="46" t="s">
+      <c r="E11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="46" t="s">
+      <c r="E12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="46" t="s">
+      <c r="F13" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1366,19 +1623,19 @@
       <c r="B14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="46" t="s">
+      <c r="E14" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1386,45 +1643,45 @@
       <c r="B15" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="64" t="s">
+      <c r="F16" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="53" t="s">
+      <c r="E17" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1432,19 +1689,19 @@
       <c r="B18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="46" t="s">
+      <c r="E18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1452,29 +1709,29 @@
       <c r="B19" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="45" t="s">
+      <c r="F20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="43" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1483,16 +1740,16 @@
       <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="46" t="s">
+      <c r="E21" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1503,16 +1760,16 @@
       <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1523,16 +1780,16 @@
       <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="48" t="s">
+      <c r="E23" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1541,16 +1798,16 @@
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="53" t="s">
+      <c r="F24" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="51" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1559,20 +1816,20 @@
       <c r="C25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="47"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="47"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
@@ -1581,16 +1838,16 @@
       <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="46" t="s">
+      <c r="E27" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1601,16 +1858,16 @@
       <c r="C28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1630,13 +1887,639 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B5B90D-5FF1-4555-A326-74BA7F5FAEB4}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="E1" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="71"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="E2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="80"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="80"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="80"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="80"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094B7708-170B-48AE-8322-85EE8ED1CFE0}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B4:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
